--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,271 +43,271 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>junk</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>sound</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>short</t>
+    <t>light</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>2</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>two</t>
   </si>
   <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>came</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>toy</t>
@@ -316,178 +316,172 @@
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
+    <t>got</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>year</t>
@@ -851,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -920,13 +914,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -938,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>0.9259259259259259</v>
@@ -970,13 +964,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -988,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4">
-        <v>0.9076923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1020,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1038,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1073,10 +1067,10 @@
         <v>0.75</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1088,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K6">
-        <v>0.8709677419354839</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1112,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1120,13 +1114,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1138,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1162,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1170,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1188,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K8">
-        <v>0.7358490566037735</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1212,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1220,13 +1214,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7087378640776699</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1238,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1262,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1270,13 +1264,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6959459459459459</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1288,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K10">
-        <v>0.6231884057971014</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1312,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1320,13 +1314,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.6553398058252428</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1338,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11">
-        <v>0.6120689655172413</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L11">
-        <v>426</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1359,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>270</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1370,13 +1364,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1388,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K12">
-        <v>0.5767634854771784</v>
+        <v>0.5809128630705395</v>
       </c>
       <c r="L12">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M12">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1412,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1420,13 +1414,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1438,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>0.5430680885972108</v>
+        <v>0.5467213114754098</v>
       </c>
       <c r="L13">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M13">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1459,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1470,13 +1464,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1488,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K14">
-        <v>0.4716981132075472</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1512,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1520,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5662650602409639</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1538,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K15">
-        <v>0.4578313253012048</v>
+        <v>0.4801223241590214</v>
       </c>
       <c r="L15">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="M15">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1562,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1570,13 +1564,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C16">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1588,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>0.4495412844036697</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="L16">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1612,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>180</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1620,13 +1614,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1638,31 +1632,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>0.4453781512605042</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1670,13 +1664,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5517241379310345</v>
+        <v>0.5078125</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1688,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K18">
-        <v>0.425531914893617</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1720,13 +1714,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5370370370370371</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1738,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K19">
-        <v>0.4126984126984127</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1762,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1770,37 +1764,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5142857142857142</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>17</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K20">
-        <v>0.3496503496503496</v>
+        <v>0.34375</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1812,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1820,13 +1814,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5078125</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1838,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>0.3389830508474576</v>
+        <v>0.34375</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1862,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1870,13 +1864,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1888,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22">
-        <v>0.32</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1920,13 +1914,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1938,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23">
-        <v>0.3125</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1962,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1970,13 +1964,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4736842105263158</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1988,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>0.28125</v>
+        <v>0.288</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2012,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2020,13 +2014,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4724409448818898</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2038,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25">
-        <v>0.2730923694779117</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2062,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2070,13 +2064,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4691943127962085</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="C26">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2088,31 +2082,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K26">
-        <v>0.2622950819672131</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2120,13 +2114,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.449438202247191</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2138,31 +2132,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <v>0.2648648648648649</v>
+      </c>
+      <c r="L27">
         <v>49</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="L27">
-        <v>32</v>
-      </c>
       <c r="M27">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2170,49 +2164,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4363636363636363</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>52</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28">
+        <v>0.2527472527472527</v>
+      </c>
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28">
         <v>24</v>
       </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28">
-        <v>0.2526881720430108</v>
-      </c>
-      <c r="L28">
-        <v>47</v>
-      </c>
-      <c r="M28">
-        <v>47</v>
-      </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>139</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2220,13 +2214,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2238,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29">
-        <v>0.25</v>
+        <v>0.232</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>0.97</v>
@@ -2262,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2270,13 +2264,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.405940594059406</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C30">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2288,31 +2282,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K30">
-        <v>0.2368421052631579</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
         <v>18</v>
       </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2320,13 +2314,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4032258064516129</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2338,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K31">
-        <v>0.2300263388937665</v>
+        <v>0.2221246707638279</v>
       </c>
       <c r="L31">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M31">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N31">
         <v>0.99</v>
@@ -2362,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2370,13 +2364,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3947368421052632</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2388,31 +2382,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K32">
-        <v>0.1708683473389356</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>296</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2420,49 +2414,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3777777777777778</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33">
+        <v>0.1954022988505747</v>
+      </c>
+      <c r="L33">
         <v>17</v>
       </c>
-      <c r="D33">
+      <c r="M33">
         <v>17</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33">
-        <v>0.1637312459230267</v>
-      </c>
-      <c r="L33">
-        <v>251</v>
-      </c>
-      <c r="M33">
-        <v>259</v>
-      </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1282</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2470,13 +2464,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3650793650793651</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2488,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34">
-        <v>0.1623376623376623</v>
+        <v>0.1504178272980501</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2512,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>129</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2520,13 +2514,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3492063492063492</v>
+        <v>0.35</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2538,31 +2532,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K35">
-        <v>0.1572327044025157</v>
+        <v>0.1478494623655914</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>134</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2570,13 +2564,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3488372093023256</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2588,31 +2582,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K36">
-        <v>0.1550802139037433</v>
+        <v>0.1457384515289525</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2620,13 +2614,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2638,31 +2632,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K37">
-        <v>0.1538461538461539</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2670,13 +2664,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3418803418803419</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2688,31 +2682,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K38">
-        <v>0.1322314049586777</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2720,13 +2714,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3148148148148148</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2738,31 +2732,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K39">
-        <v>0.1167785234899329</v>
+        <v>0.1265432098765432</v>
       </c>
       <c r="L39">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>658</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2770,13 +2764,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3114754098360656</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2788,31 +2782,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K40">
-        <v>0.1149825783972125</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>254</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2820,13 +2814,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3061224489795918</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2838,31 +2832,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K41">
-        <v>0.1050583657587549</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2870,13 +2864,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2989690721649484</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2888,31 +2882,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K42">
-        <v>0.09933774834437085</v>
+        <v>0.09421265141318977</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>136</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2920,13 +2914,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2974683544303797</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C43">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2938,31 +2932,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K43">
-        <v>0.09259259259259259</v>
+        <v>0.08709677419354839</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2970,13 +2964,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2857142857142857</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2988,31 +2982,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K44">
-        <v>0.08542713567839195</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.26</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>182</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3020,49 +3014,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2837837837837838</v>
+        <v>0.275</v>
       </c>
       <c r="C45">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>145</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45">
+        <v>0.07537688442211055</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
         <v>21</v>
       </c>
-      <c r="D45">
-        <v>21</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>53</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K45">
-        <v>0.08398950131233596</v>
-      </c>
-      <c r="L45">
-        <v>32</v>
-      </c>
-      <c r="M45">
-        <v>47</v>
-      </c>
       <c r="N45">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="O45">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>349</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3070,13 +3064,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2758620689655172</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3088,31 +3082,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46">
-        <v>0.08333333333333333</v>
+        <v>0.07023411371237458</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.4399999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>165</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3120,49 +3114,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.271356783919598</v>
+        <v>0.2654545454545454</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47">
-        <v>0.08080808080808081</v>
+        <v>0.06859205776173286</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="O47">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3170,49 +3164,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2681159420289855</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C48">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D48">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K48">
-        <v>0.075</v>
+        <v>0.06753246753246753</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N48">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O48">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>259</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3220,13 +3214,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2666666666666667</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3238,31 +3232,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K49">
-        <v>0.0670926517571885</v>
+        <v>0.05892857142857143</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>292</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3270,13 +3264,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2653061224489796</v>
+        <v>0.25</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3288,31 +3282,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K50">
-        <v>0.06440071556350627</v>
+        <v>0.05772005772005772</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>523</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3320,13 +3314,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2642857142857143</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3338,31 +3332,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51">
-        <v>0.06352941176470588</v>
+        <v>0.05459770114942529</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N51">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="O51">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>398</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3370,49 +3364,49 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2608695652173913</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K52">
-        <v>0.06204906204906205</v>
+        <v>0.0539906103286385</v>
       </c>
       <c r="L52">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="O52">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>650</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3420,49 +3414,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.25</v>
+        <v>0.2425595238095238</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K53">
-        <v>0.05507246376811594</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O53">
-        <v>0.24</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>326</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3470,49 +3464,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2405063291139241</v>
+        <v>0.24</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.0508130081300813</v>
+        <v>0.03432835820895522</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N54">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="O54">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>467</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3520,49 +3514,49 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2403560830860534</v>
+        <v>0.239193083573487</v>
       </c>
       <c r="C55">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="D55">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>512</v>
+        <v>264</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K55">
-        <v>0.03755868544600939</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="N55">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="O55">
-        <v>0.5700000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>410</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3570,13 +3564,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2371134020618557</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3588,31 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>74</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K56">
-        <v>0.03009575923392613</v>
-      </c>
-      <c r="L56">
-        <v>22</v>
-      </c>
-      <c r="M56">
-        <v>85</v>
-      </c>
-      <c r="N56">
-        <v>0.26</v>
-      </c>
-      <c r="O56">
-        <v>0.74</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>709</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3620,13 +3590,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2356020942408377</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3638,31 +3608,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>146</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57">
-        <v>0.02384500745156483</v>
-      </c>
-      <c r="L57">
-        <v>16</v>
-      </c>
-      <c r="M57">
-        <v>37</v>
-      </c>
-      <c r="N57">
-        <v>0.43</v>
-      </c>
-      <c r="O57">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>655</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3670,25 +3616,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2334293948126801</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C58">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>266</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3696,25 +3642,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2307692307692308</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>18</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3722,13 +3668,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2285714285714286</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3740,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3748,25 +3694,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2229299363057325</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3774,25 +3720,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2207505518763797</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D62">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>353</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3800,7 +3746,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2197802197802198</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C63">
         <v>20</v>
@@ -3818,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3826,7 +3772,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2173913043478261</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -3844,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3852,22 +3798,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2133333333333333</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>59</v>
@@ -3878,22 +3824,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2033898305084746</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66">
         <v>24</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>94</v>
@@ -3904,25 +3850,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2027027027027027</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3930,25 +3876,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2009345794392523</v>
+        <v>0.1880530973451327</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>171</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3956,25 +3902,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1958762886597938</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3982,25 +3928,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.19</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E70">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F70">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>81</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4008,25 +3954,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1772151898734177</v>
+        <v>0.17</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4034,25 +3980,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.169811320754717</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4060,25 +4006,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1657458563535912</v>
+        <v>0.1546762589928058</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E73">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F73">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>151</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4086,25 +4032,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.163265306122449</v>
+        <v>0.1519337016574586</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D74">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4112,13 +4058,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.15625</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4130,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4138,25 +4084,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1487179487179487</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="C76">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>166</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4164,25 +4110,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1470588235294118</v>
+        <v>0.1444759206798867</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>87</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4190,25 +4136,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1461538461538462</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4216,25 +4162,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1451612903225807</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F79">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4242,25 +4188,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1360544217687075</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F80">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4268,25 +4214,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1354401805869075</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C81">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>383</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4294,25 +4240,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1349206349206349</v>
+        <v>0.1242603550295858</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E82">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F82">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4320,25 +4266,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1318681318681319</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E83">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F83">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>158</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4346,25 +4292,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1297709923664122</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="C84">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4372,25 +4318,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1242603550295858</v>
+        <v>0.1182108626198083</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E85">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F85">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>148</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4398,25 +4344,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1186440677966102</v>
+        <v>0.1109271523178808</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E86">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>312</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4424,25 +4370,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1181318681318681</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>321</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4450,25 +4396,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1168831168831169</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>136</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4476,25 +4422,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1096345514950166</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C89">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F89">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>536</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4502,25 +4448,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1083032490974729</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F90">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4528,25 +4474,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09554140127388536</v>
+        <v>0.09443725743855109</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D91">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E91">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="F91">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>284</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4554,25 +4500,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0892018779342723</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="C92">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E92">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F92">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>388</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4580,25 +4526,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08823529411764706</v>
+        <v>0.09175738724727839</v>
       </c>
       <c r="C93">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D93">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E93">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F93">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4606,13 +4552,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08571428571428572</v>
+        <v>0.07838479809976247</v>
       </c>
       <c r="C94">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D94">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E94">
         <v>0.2</v>
@@ -4624,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4632,25 +4578,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08160621761658031</v>
+        <v>0.07736389684813753</v>
       </c>
       <c r="C95">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D95">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E95">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F95">
-        <v>0.74</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>709</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4658,25 +4604,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06048387096774194</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="C96">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E96">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F96">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4684,25 +4630,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.06</v>
+        <v>0.05299539170506912</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E97">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="F97">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>329</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4710,25 +4656,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04872389791183294</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E98">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="F98">
-        <v>0.5700000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4736,77 +4682,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.04130434782608695</v>
+        <v>0.03288490284005979</v>
       </c>
       <c r="C99">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D99">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E99">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="F99">
-        <v>0.6799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.04120879120879121</v>
-      </c>
-      <c r="C100">
-        <v>15</v>
-      </c>
-      <c r="D100">
-        <v>47</v>
-      </c>
-      <c r="E100">
-        <v>0.68</v>
-      </c>
-      <c r="F100">
-        <v>0.32</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101">
-        <v>0.03106508875739645</v>
-      </c>
-      <c r="C101">
-        <v>21</v>
-      </c>
-      <c r="D101">
-        <v>37</v>
-      </c>
-      <c r="E101">
-        <v>0.43</v>
-      </c>
-      <c r="F101">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
